--- a/_static/global/rankrankings/workers_rank_re_asian.xlsx
+++ b/_static/global/rankrankings/workers_rank_re_asian.xlsx
@@ -58,12 +58,12 @@
     <t>60863a15760523386e761cfb</t>
   </si>
   <si>
+    <t>60bd88b8fc436774352f53b9</t>
+  </si>
+  <si>
     <t>5c27de12a2b00a00018b2c16</t>
   </si>
   <si>
-    <t>60bd88b8fc436774352f53b9</t>
-  </si>
-  <si>
     <t>60b7cd4be2d4cc6bb252e016</t>
   </si>
   <si>
@@ -94,10 +94,10 @@
     <t>Roshni</t>
   </si>
   <si>
+    <t>Annes</t>
+  </si>
+  <si>
     <t>Ankai</t>
-  </si>
-  <si>
-    <t>Annes</t>
   </si>
   <si>
     <t>Chris</t>
@@ -519,7 +519,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>11.08336583276651</v>
+        <v>11.12356095231806</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
@@ -545,7 +545,7 @@
         <v>32</v>
       </c>
       <c r="F3">
-        <v>10.1129397911456</v>
+        <v>10.07657103797102</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -571,7 +571,7 @@
         <v>31</v>
       </c>
       <c r="F4">
-        <v>8.12245043575793</v>
+        <v>8.469824362969149</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -597,7 +597,7 @@
         <v>31</v>
       </c>
       <c r="F5">
-        <v>8.062732460445222</v>
+        <v>8.252431536799262</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -623,7 +623,7 @@
         <v>31</v>
       </c>
       <c r="F6">
-        <v>7.066968789479077</v>
+        <v>7.094657342882389</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -649,7 +649,7 @@
         <v>32</v>
       </c>
       <c r="F7">
-        <v>6.406513611900706</v>
+        <v>6.351992923050718</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -675,7 +675,7 @@
         <v>31</v>
       </c>
       <c r="F8">
-        <v>6.20631595445323</v>
+        <v>6.111943368614604</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
@@ -689,7 +689,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -698,10 +698,10 @@
         <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9">
-        <v>5.183922735700961</v>
+        <v>5.465857846036377</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
@@ -715,7 +715,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -724,10 +724,10 @@
         <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10">
-        <v>5.10986712038344</v>
+        <v>5.411049145544538</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
@@ -753,7 +753,7 @@
         <v>32</v>
       </c>
       <c r="F11">
-        <v>4.043609040848105</v>
+        <v>4.011565163053068</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -779,7 +779,7 @@
         <v>32</v>
       </c>
       <c r="F12">
-        <v>2.406924721161797</v>
+        <v>2.037811163075423</v>
       </c>
       <c r="G12" t="s">
         <v>33</v>
@@ -805,7 +805,7 @@
         <v>32</v>
       </c>
       <c r="F13">
-        <v>0.4985343868979834</v>
+        <v>0.2234880371687213</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>

--- a/_static/global/rankrankings/workers_rank_re_asian.xlsx
+++ b/_static/global/rankrankings/workers_rank_re_asian.xlsx
@@ -52,18 +52,18 @@
     <t>60186dc2cc1aa8103499603a</t>
   </si>
   <si>
+    <t>60863a15760523386e761cfb</t>
+  </si>
+  <si>
     <t>5697d4ae7183b8000d0fc201</t>
   </si>
   <si>
-    <t>60863a15760523386e761cfb</t>
+    <t>5c27de12a2b00a00018b2c16</t>
   </si>
   <si>
     <t>60bd88b8fc436774352f53b9</t>
   </si>
   <si>
-    <t>5c27de12a2b00a00018b2c16</t>
-  </si>
-  <si>
     <t>60b7cd4be2d4cc6bb252e016</t>
   </si>
   <si>
@@ -88,16 +88,16 @@
     <t>Emily</t>
   </si>
   <si>
+    <t>Roshni</t>
+  </si>
+  <si>
     <t>Tu</t>
   </si>
   <si>
-    <t>Roshni</t>
+    <t>Ankai</t>
   </si>
   <si>
     <t>Annes</t>
-  </si>
-  <si>
-    <t>Ankai</t>
   </si>
   <si>
     <t>Chris</t>
@@ -519,7 +519,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>11.12356095231806</v>
+        <v>11.45740717551576</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
@@ -545,7 +545,7 @@
         <v>32</v>
       </c>
       <c r="F3">
-        <v>10.07657103797102</v>
+        <v>10.08421220545006</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -571,7 +571,7 @@
         <v>31</v>
       </c>
       <c r="F4">
-        <v>8.469824362969149</v>
+        <v>8.474440037169567</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -597,7 +597,7 @@
         <v>31</v>
       </c>
       <c r="F5">
-        <v>8.252431536799262</v>
+        <v>8.469079889133782</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -623,7 +623,7 @@
         <v>31</v>
       </c>
       <c r="F6">
-        <v>7.094657342882389</v>
+        <v>7.167398355129854</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -637,7 +637,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -646,10 +646,10 @@
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7">
-        <v>6.351992923050718</v>
+        <v>6.194924391488313</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -663,7 +663,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -672,10 +672,10 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8">
-        <v>6.111943368614604</v>
+        <v>6.053014121671316</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
@@ -689,7 +689,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -698,10 +698,10 @@
         <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9">
-        <v>5.465857846036377</v>
+        <v>5.405704693608066</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
@@ -715,7 +715,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -724,10 +724,10 @@
         <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10">
-        <v>5.411049145544538</v>
+        <v>5.190617474046819</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
@@ -753,7 +753,7 @@
         <v>32</v>
       </c>
       <c r="F11">
-        <v>4.011565163053068</v>
+        <v>4.0828279198773</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -779,7 +779,7 @@
         <v>32</v>
       </c>
       <c r="F12">
-        <v>2.037811163075423</v>
+        <v>2.154970194355574</v>
       </c>
       <c r="G12" t="s">
         <v>33</v>
@@ -805,7 +805,7 @@
         <v>32</v>
       </c>
       <c r="F13">
-        <v>0.2234880371687213</v>
+        <v>0.2602112850569155</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>

--- a/_static/global/rankrankings/workers_rank_re_asian.xlsx
+++ b/_static/global/rankrankings/workers_rank_re_asian.xlsx
@@ -43,12 +43,12 @@
     <t>5f7cbf8a2fe61814cae2ce8b</t>
   </si>
   <si>
+    <t>5f2c1a97a6809c060fec8820</t>
+  </si>
+  <si>
     <t>60a71d27a66fac796ad4de6f</t>
   </si>
   <si>
-    <t>5f2c1a97a6809c060fec8820</t>
-  </si>
-  <si>
     <t>60186dc2cc1aa8103499603a</t>
   </si>
   <si>
@@ -79,10 +79,10 @@
     <t>Aalap</t>
   </si>
   <si>
+    <t>Maggie</t>
+  </si>
+  <si>
     <t>Jennifer</t>
-  </si>
-  <si>
-    <t>Maggie</t>
   </si>
   <si>
     <t>Emily</t>
@@ -519,7 +519,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>11.45740717551576</v>
+        <v>11.35146450363736</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
@@ -545,7 +545,7 @@
         <v>32</v>
       </c>
       <c r="F3">
-        <v>10.08421220545006</v>
+        <v>10.46509312749224</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -559,7 +559,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -571,7 +571,7 @@
         <v>31</v>
       </c>
       <c r="F4">
-        <v>8.474440037169567</v>
+        <v>8.345780257992518</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -585,7 +585,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -597,7 +597,7 @@
         <v>31</v>
       </c>
       <c r="F5">
-        <v>8.469079889133782</v>
+        <v>8.335815743434177</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -623,7 +623,7 @@
         <v>31</v>
       </c>
       <c r="F6">
-        <v>7.167398355129854</v>
+        <v>7.149319585641714</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -649,7 +649,7 @@
         <v>31</v>
       </c>
       <c r="F7">
-        <v>6.194924391488313</v>
+        <v>6.428054772178267</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -675,7 +675,7 @@
         <v>32</v>
       </c>
       <c r="F8">
-        <v>6.053014121671316</v>
+        <v>6.387792560901622</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
@@ -701,7 +701,7 @@
         <v>32</v>
       </c>
       <c r="F9">
-        <v>5.405704693608066</v>
+        <v>5.358859522459975</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
@@ -727,7 +727,7 @@
         <v>31</v>
       </c>
       <c r="F10">
-        <v>5.190617474046819</v>
+        <v>5.046880051605173</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
@@ -753,7 +753,7 @@
         <v>32</v>
       </c>
       <c r="F11">
-        <v>4.0828279198773</v>
+        <v>4.123973324417245</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -779,7 +779,7 @@
         <v>32</v>
       </c>
       <c r="F12">
-        <v>2.154970194355574</v>
+        <v>2.400210451344222</v>
       </c>
       <c r="G12" t="s">
         <v>33</v>
@@ -805,7 +805,7 @@
         <v>32</v>
       </c>
       <c r="F13">
-        <v>0.2602112850569155</v>
+        <v>0.1240641252646651</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>

--- a/_static/global/rankrankings/workers_rank_re_asian.xlsx
+++ b/_static/global/rankrankings/workers_rank_re_asian.xlsx
@@ -43,12 +43,12 @@
     <t>5f7cbf8a2fe61814cae2ce8b</t>
   </si>
   <si>
+    <t>60a71d27a66fac796ad4de6f</t>
+  </si>
+  <si>
     <t>5f2c1a97a6809c060fec8820</t>
   </si>
   <si>
-    <t>60a71d27a66fac796ad4de6f</t>
-  </si>
-  <si>
     <t>60186dc2cc1aa8103499603a</t>
   </si>
   <si>
@@ -79,10 +79,10 @@
     <t>Aalap</t>
   </si>
   <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
     <t>Maggie</t>
-  </si>
-  <si>
-    <t>Jennifer</t>
   </si>
   <si>
     <t>Emily</t>
@@ -519,7 +519,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>11.35146450363736</v>
+        <v>11.20066658138457</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
@@ -545,7 +545,7 @@
         <v>32</v>
       </c>
       <c r="F3">
-        <v>10.46509312749224</v>
+        <v>10.04930818106606</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -559,7 +559,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -571,7 +571,7 @@
         <v>31</v>
       </c>
       <c r="F4">
-        <v>8.345780257992518</v>
+        <v>8.248826543614417</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -585,7 +585,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -597,7 +597,7 @@
         <v>31</v>
       </c>
       <c r="F5">
-        <v>8.335815743434177</v>
+        <v>8.220568487397175</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -623,7 +623,7 @@
         <v>31</v>
       </c>
       <c r="F6">
-        <v>7.149319585641714</v>
+        <v>7.249275200471399</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -649,7 +649,7 @@
         <v>31</v>
       </c>
       <c r="F7">
-        <v>6.428054772178267</v>
+        <v>6.455977501408833</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -675,7 +675,7 @@
         <v>32</v>
       </c>
       <c r="F8">
-        <v>6.387792560901622</v>
+        <v>6.103291068476004</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
@@ -701,7 +701,7 @@
         <v>32</v>
       </c>
       <c r="F9">
-        <v>5.358859522459975</v>
+        <v>5.414954327138534</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
@@ -727,7 +727,7 @@
         <v>31</v>
       </c>
       <c r="F10">
-        <v>5.046880051605173</v>
+        <v>5.320316808829586</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
@@ -753,7 +753,7 @@
         <v>32</v>
       </c>
       <c r="F11">
-        <v>4.123973324417245</v>
+        <v>4.27658389358938</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -779,7 +779,7 @@
         <v>32</v>
       </c>
       <c r="F12">
-        <v>2.400210451344222</v>
+        <v>2.210786006685201</v>
       </c>
       <c r="G12" t="s">
         <v>33</v>
@@ -805,7 +805,7 @@
         <v>32</v>
       </c>
       <c r="F13">
-        <v>0.1240641252646651</v>
+        <v>0.4860780824965417</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>

--- a/_static/global/rankrankings/workers_rank_re_asian.xlsx
+++ b/_static/global/rankrankings/workers_rank_re_asian.xlsx
@@ -43,12 +43,12 @@
     <t>5f7cbf8a2fe61814cae2ce8b</t>
   </si>
   <si>
+    <t>5f2c1a97a6809c060fec8820</t>
+  </si>
+  <si>
     <t>60a71d27a66fac796ad4de6f</t>
   </si>
   <si>
-    <t>5f2c1a97a6809c060fec8820</t>
-  </si>
-  <si>
     <t>60186dc2cc1aa8103499603a</t>
   </si>
   <si>
@@ -79,10 +79,10 @@
     <t>Aalap</t>
   </si>
   <si>
+    <t>Maggie</t>
+  </si>
+  <si>
     <t>Jennifer</t>
-  </si>
-  <si>
-    <t>Maggie</t>
   </si>
   <si>
     <t>Emily</t>
@@ -519,7 +519,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>11.27792061352761</v>
+        <v>11.36491441729315</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
@@ -545,7 +545,7 @@
         <v>32</v>
       </c>
       <c r="F3">
-        <v>10.42397461606786</v>
+        <v>10.01785415257338</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -559,7 +559,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -571,7 +571,7 @@
         <v>31</v>
       </c>
       <c r="F4">
-        <v>8.159181886559722</v>
+        <v>8.040674606944371</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -585,7 +585,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -597,7 +597,7 @@
         <v>31</v>
       </c>
       <c r="F5">
-        <v>8.078791820834088</v>
+        <v>8.032360915298707</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -623,7 +623,7 @@
         <v>31</v>
       </c>
       <c r="F6">
-        <v>7.341074931300875</v>
+        <v>7.393130267324382</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -649,7 +649,7 @@
         <v>32</v>
       </c>
       <c r="F7">
-        <v>6.287939568370619</v>
+        <v>6.317503956260554</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -675,7 +675,7 @@
         <v>31</v>
       </c>
       <c r="F8">
-        <v>6.096219943567048</v>
+        <v>6.011467763540303</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
@@ -701,7 +701,7 @@
         <v>32</v>
       </c>
       <c r="F9">
-        <v>5.259119386742901</v>
+        <v>5.079227112452898</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
@@ -727,7 +727,7 @@
         <v>31</v>
       </c>
       <c r="F10">
-        <v>5.120782393204041</v>
+        <v>5.054581671041178</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
@@ -753,7 +753,7 @@
         <v>32</v>
       </c>
       <c r="F11">
-        <v>4.094929148799656</v>
+        <v>4.380943723260605</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -779,7 +779,7 @@
         <v>32</v>
       </c>
       <c r="F12">
-        <v>2.424068321745377</v>
+        <v>2.380573180982641</v>
       </c>
       <c r="G12" t="s">
         <v>33</v>
@@ -805,7 +805,7 @@
         <v>32</v>
       </c>
       <c r="F13">
-        <v>0.0973807742849791</v>
+        <v>0.2369653110842641</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>
